--- a/30 設計/20 プログラム設計/10 機能設計/30 Webメール/Webメール.xlsx
+++ b/30 設計/20 プログラム設計/10 機能設計/30 Webメール/Webメール.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="-285" windowWidth="17220" windowHeight="12990"/>
+    <workbookView xWindow="450" yWindow="-285" windowWidth="17220" windowHeight="12990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1733,7 +1733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2022,6 +2022,17 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2030,7 +2041,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2485,6 +2496,7 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2782,7 +2794,7 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>132517</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180975" cy="0"/>
@@ -2793,7 +2805,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6886574" y="2399467"/>
+          <a:off x="6886574" y="1732717"/>
           <a:ext cx="180975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3212,14 +3224,14 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>115961</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>57569</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>106746</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>116271</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3228,8 +3240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8133526" y="4903304"/>
-          <a:ext cx="123826" cy="106746"/>
+          <a:off x="8078861" y="8010525"/>
+          <a:ext cx="122583" cy="106746"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -3274,7 +3286,7 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>12835</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>3307</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180975" cy="0"/>
@@ -3285,7 +3297,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6937096" y="1726090"/>
+          <a:off x="6889885" y="1870207"/>
           <a:ext cx="180975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3318,9 +3330,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>181798</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>823</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>130858</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180975" cy="0"/>
@@ -3331,7 +3343,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6923841" y="1853641"/>
+          <a:off x="6877873" y="1997758"/>
           <a:ext cx="180975" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -15148,6 +15160,98 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>43071</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>2486</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="136871" cy="0"/>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="219" name="直線矢印コネクタ 218"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="5359782" y="9001850"/>
+          <a:ext cx="0" cy="136871"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>53010</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>4142</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="136871" cy="0"/>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="220" name="直線矢印コネクタ 219"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="7541421" y="8470106"/>
+          <a:ext cx="0" cy="136871"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16626,7 +16730,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -16668,7 +16772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16703,7 +16807,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16914,7 +17018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5"/>
   <cols>
@@ -22834,7 +22938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA545"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:V2"/>
     </sheetView>
   </sheetViews>
@@ -23557,8 +23661,8 @@
       <c r="AI14" s="68"/>
       <c r="AJ14" s="68"/>
       <c r="AK14" s="68"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="34"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="32"/>
       <c r="AN14" s="63" t="s">
         <v>215</v>
       </c>
@@ -23622,7 +23726,8 @@
       <c r="AI15" s="68"/>
       <c r="AJ15" s="68"/>
       <c r="AK15" s="68"/>
-      <c r="AL15" s="39"/>
+      <c r="AL15" s="79"/>
+      <c r="AM15" s="31"/>
       <c r="AN15" s="38" t="s">
         <v>212</v>
       </c>
@@ -23687,6 +23792,7 @@
       <c r="AJ16" s="68"/>
       <c r="AK16" s="68"/>
       <c r="AL16" s="39"/>
+      <c r="AM16" s="79"/>
       <c r="AN16" s="79" t="s">
         <v>27</v>
       </c>
@@ -23753,6 +23859,7 @@
       <c r="AJ17" s="68"/>
       <c r="AK17" s="68"/>
       <c r="AL17" s="39"/>
+      <c r="AM17" s="39"/>
       <c r="AN17" s="71" t="s">
         <v>27</v>
       </c>
@@ -23819,6 +23926,7 @@
       <c r="AJ18" s="68"/>
       <c r="AK18" s="68"/>
       <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
       <c r="AS18" s="41"/>
       <c r="AZ18" s="33"/>
       <c r="BA18" s="70"/>
@@ -23869,8 +23977,8 @@
       <c r="AI19" s="68"/>
       <c r="AJ19" s="68"/>
       <c r="AK19" s="68"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="68"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
       <c r="AN19" s="51" t="s">
         <v>36</v>
       </c>
@@ -23934,8 +24042,8 @@
       <c r="AI20" s="68"/>
       <c r="AJ20" s="68"/>
       <c r="AK20" s="68"/>
-      <c r="AL20" s="64"/>
-      <c r="AM20" s="66"/>
+      <c r="AL20" s="67"/>
+      <c r="AM20" s="190"/>
       <c r="AN20" s="54" t="s">
         <v>37</v>
       </c>
@@ -23999,8 +24107,8 @@
       <c r="AI21" s="68"/>
       <c r="AJ21" s="68"/>
       <c r="AK21" s="68"/>
-      <c r="AL21" s="63"/>
-      <c r="AM21" s="66"/>
+      <c r="AL21" s="67"/>
+      <c r="AM21" s="190"/>
       <c r="AN21" s="67" t="s">
         <v>26</v>
       </c>
@@ -24089,7 +24197,14 @@
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="67"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="33"/>
       <c r="J23" s="39"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
       <c r="O23" s="68"/>
       <c r="P23" s="67"/>
       <c r="Q23" s="68"/>
@@ -24142,7 +24257,14 @@
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="67"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="39"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
       <c r="O24" s="68"/>
       <c r="P24" s="67"/>
       <c r="Q24" s="68"/>
@@ -24191,7 +24313,14 @@
     </row>
     <row r="25" spans="1:53">
       <c r="A25" s="67"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="33"/>
       <c r="J25" s="39"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
       <c r="O25" s="68"/>
       <c r="P25" s="67"/>
       <c r="Q25" s="68"/>
@@ -24240,7 +24369,14 @@
     </row>
     <row r="26" spans="1:53">
       <c r="A26" s="67"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="39"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
       <c r="O26" s="68"/>
       <c r="P26" s="67"/>
       <c r="Q26" s="68"/>
@@ -24289,7 +24425,14 @@
     </row>
     <row r="27" spans="1:53">
       <c r="A27" s="67"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="33"/>
       <c r="J27" s="39"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
       <c r="O27" s="68"/>
       <c r="P27" s="67"/>
       <c r="Q27" s="68"/>
@@ -24338,7 +24481,14 @@
     </row>
     <row r="28" spans="1:53">
       <c r="A28" s="67"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="39"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
       <c r="O28" s="68"/>
       <c r="P28" s="67"/>
       <c r="Q28" s="68"/>
@@ -24385,7 +24535,14 @@
     </row>
     <row r="29" spans="1:53">
       <c r="A29" s="67"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="33"/>
       <c r="J29" s="39"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
       <c r="O29" s="68"/>
       <c r="P29" s="67"/>
       <c r="Q29" s="68"/>
@@ -24432,7 +24589,14 @@
     </row>
     <row r="30" spans="1:53">
       <c r="A30" s="67"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="33"/>
       <c r="J30" s="39"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
       <c r="O30" s="68"/>
       <c r="P30" s="67"/>
       <c r="Q30" s="68"/>
@@ -24479,7 +24643,14 @@
     </row>
     <row r="31" spans="1:53">
       <c r="A31" s="67"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="39"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
       <c r="O31" s="68"/>
       <c r="P31" s="67"/>
       <c r="Q31" s="68"/>
@@ -24526,7 +24697,14 @@
     </row>
     <row r="32" spans="1:53">
       <c r="A32" s="67"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="39"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
       <c r="O32" s="68"/>
       <c r="P32" s="67"/>
       <c r="Q32" s="68"/>
@@ -24573,7 +24751,14 @@
     </row>
     <row r="33" spans="1:53">
       <c r="A33" s="67"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="39"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
       <c r="O33" s="68"/>
       <c r="P33" s="67"/>
       <c r="Q33" s="68"/>
@@ -24620,7 +24805,15 @@
     </row>
     <row r="34" spans="1:53">
       <c r="A34" s="67"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="39"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
       <c r="P34" s="38"/>
       <c r="Q34" s="40"/>
       <c r="R34" s="40"/>
@@ -24666,7 +24859,19 @@
     </row>
     <row r="35" spans="1:53">
       <c r="A35" s="67"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="39"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
       <c r="T35" s="38"/>
       <c r="U35" s="40"/>
       <c r="V35" s="40"/>
@@ -24704,6 +24909,9 @@
     </row>
     <row r="36" spans="1:53">
       <c r="A36" s="67"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="38"/>
       <c r="K36" s="51" t="s">
         <v>55</v>
@@ -24757,6 +24965,10 @@
     </row>
     <row r="37" spans="1:53">
       <c r="A37" s="67"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="46" t="s">
         <v>58</v>
       </c>
@@ -24771,6 +24983,7 @@
       <c r="T37" s="47"/>
       <c r="U37" s="47"/>
       <c r="V37" s="74"/>
+      <c r="W37" s="33"/>
       <c r="X37" s="71"/>
       <c r="Y37" s="72"/>
       <c r="Z37" s="72"/>
@@ -24803,6 +25016,10 @@
     </row>
     <row r="38" spans="1:53">
       <c r="A38" s="67"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="35" t="s">
         <v>214</v>
       </c>
@@ -24819,6 +25036,8 @@
       <c r="T38" s="36"/>
       <c r="U38" s="58"/>
       <c r="V38" s="59"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
       <c r="Y38" s="68"/>
       <c r="Z38" s="68"/>
       <c r="AA38" s="68"/>
@@ -24853,6 +25072,10 @@
     </row>
     <row r="39" spans="1:53">
       <c r="A39" s="67"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
       <c r="K39" s="71"/>
       <c r="L39" s="72"/>
       <c r="M39" s="72"/>
@@ -24865,6 +25088,12 @@
       <c r="T39" s="72"/>
       <c r="U39" s="40"/>
       <c r="V39" s="41"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
       <c r="AC39" s="68"/>
       <c r="AD39" s="68"/>
       <c r="AE39" s="67"/>
@@ -24896,11 +25125,19 @@
     </row>
     <row r="40" spans="1:53">
       <c r="A40" s="67"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
       <c r="N40" s="33"/>
       <c r="O40" s="68"/>
       <c r="P40" s="68"/>
       <c r="Q40" s="68"/>
       <c r="R40" s="68"/>
+      <c r="S40" s="33"/>
       <c r="T40" s="39"/>
       <c r="U40" s="33"/>
       <c r="V40" s="33"/>
@@ -24941,11 +25178,19 @@
     </row>
     <row r="41" spans="1:53">
       <c r="A41" s="67"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
       <c r="N41" s="33"/>
       <c r="O41" s="68"/>
       <c r="P41" s="68"/>
       <c r="Q41" s="68"/>
       <c r="R41" s="68"/>
+      <c r="S41" s="33"/>
       <c r="T41" s="39"/>
       <c r="U41" s="33"/>
       <c r="V41" s="33"/>
@@ -24986,11 +25231,19 @@
     </row>
     <row r="42" spans="1:53">
       <c r="A42" s="67"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="33"/>
       <c r="O42" s="68"/>
       <c r="P42" s="68"/>
       <c r="Q42" s="68"/>
       <c r="R42" s="68"/>
+      <c r="S42" s="33"/>
       <c r="T42" s="39"/>
       <c r="U42" s="33"/>
       <c r="V42" s="33"/>
@@ -25031,11 +25284,19 @@
     </row>
     <row r="43" spans="1:53">
       <c r="A43" s="67"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
       <c r="N43" s="33"/>
       <c r="O43" s="68"/>
       <c r="P43" s="68"/>
       <c r="Q43" s="68"/>
       <c r="R43" s="68"/>
+      <c r="S43" s="33"/>
       <c r="T43" s="39"/>
       <c r="U43" s="33"/>
       <c r="V43" s="33"/>
@@ -25076,11 +25337,19 @@
     </row>
     <row r="44" spans="1:53">
       <c r="A44" s="67"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
       <c r="N44" s="33"/>
       <c r="O44" s="68"/>
       <c r="P44" s="68"/>
       <c r="Q44" s="68"/>
       <c r="R44" s="68"/>
+      <c r="S44" s="33"/>
       <c r="T44" s="39"/>
       <c r="U44" s="33"/>
       <c r="V44" s="33"/>
@@ -25121,11 +25390,19 @@
     </row>
     <row r="45" spans="1:53">
       <c r="A45" s="67"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
       <c r="N45" s="33"/>
       <c r="O45" s="68"/>
       <c r="P45" s="68"/>
       <c r="Q45" s="68"/>
       <c r="R45" s="68"/>
+      <c r="S45" s="33"/>
       <c r="T45" s="39"/>
       <c r="U45" s="33"/>
       <c r="V45" s="33"/>
@@ -25166,11 +25443,19 @@
     </row>
     <row r="46" spans="1:53">
       <c r="A46" s="67"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
       <c r="N46" s="33"/>
       <c r="O46" s="68"/>
       <c r="P46" s="68"/>
       <c r="Q46" s="68"/>
       <c r="R46" s="68"/>
+      <c r="S46" s="33"/>
       <c r="T46" s="39"/>
       <c r="U46" s="33"/>
       <c r="V46" s="33"/>
@@ -25211,11 +25496,19 @@
     </row>
     <row r="47" spans="1:53">
       <c r="A47" s="67"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
       <c r="N47" s="33"/>
       <c r="O47" s="68"/>
       <c r="P47" s="68"/>
       <c r="Q47" s="68"/>
       <c r="R47" s="68"/>
+      <c r="S47" s="33"/>
       <c r="T47" s="39"/>
       <c r="U47" s="33"/>
       <c r="V47" s="33"/>
@@ -25256,11 +25549,19 @@
     </row>
     <row r="48" spans="1:53">
       <c r="A48" s="67"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
       <c r="N48" s="33"/>
       <c r="O48" s="68"/>
       <c r="P48" s="68"/>
       <c r="Q48" s="68"/>
       <c r="R48" s="68"/>
+      <c r="S48" s="33"/>
       <c r="T48" s="39"/>
       <c r="U48" s="33"/>
       <c r="V48" s="33"/>
@@ -25301,11 +25602,19 @@
     </row>
     <row r="49" spans="1:53">
       <c r="A49" s="67"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
       <c r="N49" s="33"/>
       <c r="O49" s="68"/>
       <c r="P49" s="68"/>
       <c r="Q49" s="68"/>
       <c r="R49" s="68"/>
+      <c r="S49" s="33"/>
       <c r="T49" s="39"/>
       <c r="U49" s="33"/>
       <c r="V49" s="33"/>
@@ -25346,11 +25655,19 @@
     </row>
     <row r="50" spans="1:53">
       <c r="A50" s="67"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
       <c r="N50" s="33"/>
       <c r="O50" s="68"/>
       <c r="P50" s="68"/>
       <c r="Q50" s="68"/>
       <c r="R50" s="68"/>
+      <c r="S50" s="33"/>
       <c r="T50" s="39"/>
       <c r="U50" s="33"/>
       <c r="V50" s="33"/>
@@ -25391,11 +25708,19 @@
     </row>
     <row r="51" spans="1:53">
       <c r="A51" s="67"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
       <c r="N51" s="33"/>
       <c r="O51" s="68"/>
       <c r="P51" s="68"/>
       <c r="Q51" s="68"/>
       <c r="R51" s="68"/>
+      <c r="S51" s="33"/>
       <c r="T51" s="39"/>
       <c r="U51" s="33"/>
       <c r="V51" s="33"/>
@@ -25436,11 +25761,19 @@
     </row>
     <row r="52" spans="1:53">
       <c r="A52" s="67"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
       <c r="N52" s="33"/>
       <c r="O52" s="68"/>
       <c r="P52" s="68"/>
       <c r="Q52" s="68"/>
       <c r="R52" s="68"/>
+      <c r="S52" s="33"/>
       <c r="T52" s="39"/>
       <c r="U52" s="33"/>
       <c r="V52" s="33"/>
@@ -25481,11 +25814,19 @@
     </row>
     <row r="53" spans="1:53">
       <c r="A53" s="67"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
       <c r="N53" s="33"/>
       <c r="O53" s="68"/>
       <c r="P53" s="68"/>
       <c r="Q53" s="68"/>
       <c r="R53" s="68"/>
+      <c r="S53" s="33"/>
       <c r="T53" s="39"/>
       <c r="U53" s="33"/>
       <c r="V53" s="33"/>
@@ -25526,11 +25867,19 @@
     </row>
     <row r="54" spans="1:53">
       <c r="A54" s="67"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
       <c r="N54" s="33"/>
       <c r="O54" s="68"/>
       <c r="P54" s="68"/>
       <c r="Q54" s="68"/>
       <c r="R54" s="68"/>
+      <c r="S54" s="33"/>
       <c r="T54" s="39"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
@@ -25571,11 +25920,19 @@
     </row>
     <row r="55" spans="1:53">
       <c r="A55" s="67"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
       <c r="N55" s="33"/>
       <c r="O55" s="68"/>
       <c r="P55" s="68"/>
       <c r="Q55" s="68"/>
       <c r="R55" s="68"/>
+      <c r="S55" s="33"/>
       <c r="T55" s="39"/>
       <c r="U55" s="33"/>
       <c r="V55" s="33"/>
@@ -25616,11 +25973,19 @@
     </row>
     <row r="56" spans="1:53">
       <c r="A56" s="67"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
       <c r="N56" s="33"/>
       <c r="O56" s="68"/>
       <c r="P56" s="68"/>
       <c r="Q56" s="68"/>
       <c r="R56" s="68"/>
+      <c r="S56" s="33"/>
       <c r="T56" s="39"/>
       <c r="U56" s="33"/>
       <c r="V56" s="33"/>
@@ -25661,11 +26026,19 @@
     </row>
     <row r="57" spans="1:53">
       <c r="A57" s="67"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
       <c r="N57" s="33"/>
       <c r="O57" s="68"/>
       <c r="P57" s="68"/>
       <c r="Q57" s="68"/>
       <c r="R57" s="68"/>
+      <c r="S57" s="33"/>
       <c r="T57" s="39"/>
       <c r="U57" s="33"/>
       <c r="V57" s="33"/>
@@ -25706,11 +26079,19 @@
     </row>
     <row r="58" spans="1:53">
       <c r="A58" s="67"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
       <c r="N58" s="33"/>
       <c r="O58" s="68"/>
       <c r="P58" s="68"/>
       <c r="Q58" s="68"/>
       <c r="R58" s="68"/>
+      <c r="S58" s="33"/>
       <c r="T58" s="39"/>
       <c r="U58" s="33"/>
       <c r="V58" s="33"/>
@@ -25751,11 +26132,19 @@
     </row>
     <row r="59" spans="1:53">
       <c r="A59" s="67"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
       <c r="N59" s="33"/>
       <c r="O59" s="68"/>
       <c r="P59" s="68"/>
       <c r="Q59" s="68"/>
       <c r="R59" s="68"/>
+      <c r="S59" s="33"/>
       <c r="T59" s="39"/>
       <c r="U59" s="33"/>
       <c r="V59" s="33"/>
@@ -25796,11 +26185,19 @@
     </row>
     <row r="60" spans="1:53">
       <c r="A60" s="67"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
       <c r="N60" s="33"/>
       <c r="O60" s="68"/>
       <c r="P60" s="68"/>
       <c r="Q60" s="68"/>
       <c r="R60" s="68"/>
+      <c r="S60" s="33"/>
       <c r="T60" s="39"/>
       <c r="U60" s="33"/>
       <c r="V60" s="33"/>
@@ -25841,11 +26238,19 @@
     </row>
     <row r="61" spans="1:53">
       <c r="A61" s="67"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
       <c r="N61" s="33"/>
       <c r="O61" s="68"/>
       <c r="P61" s="68"/>
       <c r="Q61" s="68"/>
       <c r="R61" s="68"/>
+      <c r="S61" s="33"/>
       <c r="T61" s="39"/>
       <c r="U61" s="33"/>
       <c r="V61" s="33"/>
@@ -25871,8 +26276,8 @@
       <c r="AP61" s="33"/>
       <c r="AQ61" s="33"/>
       <c r="AR61" s="33"/>
-      <c r="AS61" s="33"/>
-      <c r="AT61" s="33"/>
+      <c r="AS61" s="68"/>
+      <c r="AT61" s="67"/>
       <c r="AU61" s="33"/>
       <c r="AV61" s="33"/>
       <c r="AW61" s="33"/>
@@ -25887,8 +26292,8 @@
       <c r="D62" s="68"/>
       <c r="E62" s="68"/>
       <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
       <c r="I62" s="68"/>
       <c r="J62" s="68"/>
       <c r="K62" s="68"/>
@@ -25941,8 +26346,8 @@
       <c r="D63" s="68"/>
       <c r="E63" s="68"/>
       <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
       <c r="I63" s="68"/>
       <c r="J63" s="68"/>
       <c r="K63" s="68"/>
@@ -25990,8 +26395,8 @@
       <c r="D64" s="68"/>
       <c r="E64" s="68"/>
       <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
       <c r="I64" s="68"/>
       <c r="J64" s="68"/>
       <c r="K64" s="68"/>
@@ -26044,42 +26449,42 @@
       <c r="D65" s="68"/>
       <c r="E65" s="68"/>
       <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="68"/>
-      <c r="N65" s="68"/>
-      <c r="O65" s="68"/>
-      <c r="P65" s="68"/>
-      <c r="Q65" s="68"/>
-      <c r="R65" s="68"/>
-      <c r="S65" s="68"/>
-      <c r="T65" s="67"/>
-      <c r="U65" s="68"/>
-      <c r="V65" s="68"/>
-      <c r="W65" s="68"/>
-      <c r="X65" s="68"/>
-      <c r="Y65" s="68"/>
-      <c r="Z65" s="68"/>
-      <c r="AA65" s="68"/>
-      <c r="AB65" s="68"/>
-      <c r="AC65" s="68"/>
-      <c r="AD65" s="68"/>
-      <c r="AE65" s="71"/>
-      <c r="AF65" s="72"/>
-      <c r="AG65" s="72"/>
-      <c r="AH65" s="72"/>
-      <c r="AI65" s="40"/>
-      <c r="AJ65" s="40"/>
-      <c r="AK65" s="40"/>
-      <c r="AL65" s="38"/>
-      <c r="AM65" s="40"/>
-      <c r="AN65" s="40"/>
-      <c r="AO65" s="40"/>
-      <c r="AP65" s="41"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
+      <c r="R65" s="64"/>
+      <c r="S65" s="64"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="64"/>
+      <c r="V65" s="64"/>
+      <c r="W65" s="64"/>
+      <c r="X65" s="64"/>
+      <c r="Y65" s="64"/>
+      <c r="Z65" s="64"/>
+      <c r="AA65" s="64"/>
+      <c r="AB65" s="64"/>
+      <c r="AC65" s="64"/>
+      <c r="AD65" s="66"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="36"/>
+      <c r="AH65" s="36"/>
+      <c r="AI65" s="58"/>
+      <c r="AJ65" s="58"/>
+      <c r="AK65" s="58"/>
+      <c r="AL65" s="57"/>
+      <c r="AM65" s="58"/>
+      <c r="AN65" s="58"/>
+      <c r="AO65" s="58"/>
+      <c r="AP65" s="59"/>
       <c r="AQ65" s="51" t="s">
         <v>88</v>
       </c>
@@ -26101,7 +26506,7 @@
       <c r="D66" s="68"/>
       <c r="E66" s="68"/>
       <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
+      <c r="G66" s="67"/>
       <c r="H66" s="68"/>
       <c r="I66" s="68"/>
       <c r="J66" s="68"/>
@@ -26155,7 +26560,7 @@
       <c r="D67" s="68"/>
       <c r="E67" s="68"/>
       <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="68"/>
       <c r="I67" s="68"/>
       <c r="J67" s="68"/>
@@ -26211,29 +26616,30 @@
       <c r="D68" s="68"/>
       <c r="E68" s="68"/>
       <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="68"/>
-      <c r="Q68" s="68"/>
-      <c r="R68" s="68"/>
-      <c r="S68" s="68"/>
-      <c r="T68" s="68"/>
-      <c r="U68" s="68"/>
-      <c r="V68" s="68"/>
-      <c r="W68" s="68"/>
-      <c r="X68" s="68"/>
-      <c r="Y68" s="68"/>
-      <c r="Z68" s="68"/>
-      <c r="AA68" s="68"/>
-      <c r="AB68" s="68"/>
-      <c r="AC68" s="68"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="72"/>
+      <c r="K68" s="72"/>
+      <c r="L68" s="72"/>
+      <c r="M68" s="72"/>
+      <c r="N68" s="72"/>
+      <c r="O68" s="72"/>
+      <c r="P68" s="72"/>
+      <c r="Q68" s="72"/>
+      <c r="R68" s="72"/>
+      <c r="S68" s="72"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="36"/>
+      <c r="AA68" s="36"/>
+      <c r="AB68" s="36"/>
+      <c r="AC68" s="36"/>
+      <c r="AD68" s="59"/>
       <c r="AE68" s="54" t="s">
         <v>61</v>
       </c>
